--- a/biology/Zoologie/Acoelomata/Acoelomata.xlsx
+++ b/biology/Zoologie/Acoelomata/Acoelomata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un animal acœlomate se caractérise par l'absence de cœlome et donc des organes internes dérivant du mésoderme. On parle alors d'une cavité blastocoelienne.
 On écrit désormais Acélomate en nouvelle orthographe selon l'Académie Française.
-Les acœlomés ou acoelomates (Acoelomata) étaient considérés comme les plus « primitifs » des groupes de bilatériens. Toutefois, les études phylogénétiques modernes basées sur l'analyse de l'ARN 18S ont montré que ce caractère ne reflète pas leur ancienneté mais qu'ils s'agit, comme les Pseudocœlomates, de cœlomates protostomiens qui se sont par la suite simplifiés[1],[2].
+Les acœlomés ou acoelomates (Acoelomata) étaient considérés comme les plus « primitifs » des groupes de bilatériens. Toutefois, les études phylogénétiques modernes basées sur l'analyse de l'ARN 18S ont montré que ce caractère ne reflète pas leur ancienneté mais qu'ils s'agit, comme les Pseudocœlomates, de cœlomates protostomiens qui se sont par la suite simplifiés,.
 La question reste donc ouverte de savoir si l'évolution a fait passer les animaux directement du type Radiata au type bilatérien cœlomate sans passer par un stade acœlomate plus simple ou si ces animaux ont existé mais ont totalement disparu de nos jours.
 Deux embranchements seulement étaient classés parmi les Acœlomata :
 les plathelminthes ou platodes ou vers plats et
